--- a/configuration/InstructorEditData.xlsx
+++ b/configuration/InstructorEditData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\semester5\SoftwareTesting\PROJECT\New folder\SoftwareTesting\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FDA6F7-DEE1-4ACB-B7E8-7946A76ED02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16815D84-AD80-4B21-8F0D-AC724D848767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAD14D7C-28CE-49C6-8E41-127CFB7827DA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>editinstructor1</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>password_instructor</t>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
+    <t>Updated Success</t>
+  </si>
+  <si>
+    <t>Updated Successfully</t>
   </si>
 </sst>
 </file>
@@ -414,60 +423,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA339347-648E-4C76-81AF-1D0A46C3B55E}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>234567</v>
       </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>234567</v>
       </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>234567</v>
       </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>234567</v>
       </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>234567</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
